--- a/biology/Médecine/Noël_Retz/Noël_Retz.xlsx
+++ b/biology/Médecine/Noël_Retz/Noël_Retz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Retz</t>
+          <t>Noël_Retz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Gabriel dit Noël Retz[réf. nécessaire] est un médecin français né en 1758 à Arras et mort en 1810 à Paris.
-Docteur en médecine à Arras[1], médecin de la Marine royale à Rochefort, correspondant de la Société royale de médecine et de l'académie de Dijon.
+Docteur en médecine à Arras, médecin de la Marine royale à Rochefort, correspondant de la Société royale de médecine et de l'académie de Dijon.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Retz</t>
+          <t>Noël_Retz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le libraire récurrent nommé Méquignon l'aîné est Nicolas-Toussaint Méquignon (1744-1830).
 Observations intéressantes en faveur de la section de la symphise du pubis, ouvrage dont le but est de répondre à un mémoire des médecins et chirurgiens d'Arras intitulé : Examen des faits relatifs à cette opération et de servir de suite aux recherches de M. Alphonse Leroy, 1778, lire en ligne.
@@ -520,7 +534,7 @@
 Lettre sur le secret de M. Mesmer, Paris, Méquignon l'aîné, 1782, 22p. lire en ligne sur Gallica.
 Précis d'observations sur la nature, les causes, les symptômes et le traitement des maladies épidémiques qui règnent tous les ans à Rochefort et qu'on observe de tems en tems dans la plupart des provinces de France, Paris, Méquignon l'aîné et à Versailes, chez Blaisot, libraire ordinaire du roi &amp; de la reine, 1784.
 Météorologie appliquée à la médecine et à l'agriculture, Paris, Méquignon, 1784, (BNF 31201011), en ligne.
-Fragmens sur l'électricité humaine, Amsterdam &amp; à Paris, chez Méquignon, 1785, in-12, XII, 108, 5 p., en ligne[2].
+Fragmens sur l'électricité humaine, Amsterdam &amp; à Paris, chez Méquignon, 1785, in-12, XII, 108, 5 p., en ligne.
 Des maladies de la peau, de leur cause, de leurs symptomes, des traitemens qu'elles exigent, Amsterdam et Paris, Méquignon l'Aîné, 1785, lire en ligne sur Gallica.
 Nouvelles instructives bibliographiques, historiques et critiques de médecine, chirurgie et pharmacie pour l'année 1785 ou Recueil raisonné de tout ce qu'il importe d'apprendre, tome premier, A Paris, Méquignon l'aîné, 1785, en ligne.
 Motion d'une utilité remarquable, proposée à l'assemblée des États-Généraux, 1789 (BNF 31201007).
